--- a/output/fit_clients/fit_round_92.xlsx
+++ b/output/fit_clients/fit_round_92.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6731347496.814695</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004784351583396767</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.741493893263766</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9440498125117958</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.741493893263766</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6507513822.224977</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.00475603569567964</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.336610111098311</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9038746247455325</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.336610111098311</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6604347454.344088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003023161273729755</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.503892809948528</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.93385468280571</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.503892809948528</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4640176677.823361</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004244148997803183</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>22</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.381622531142188</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8337163255512268</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.381622531142188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6022504687.430658</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002805498361190488</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7082843472564887</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.217828183606876</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.034101126206548</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.217828183606876</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>9157150437.886824</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009748239089033176</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.449119092783428</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.922493279539594</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.449119092783428</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7735820043.300967</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003329858892214029</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.173413191535211</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9631870119295627</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.173413191535211</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6759189562.989166</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004222511766264855</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.754024287075026</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9018599135216366</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.754024287075026</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3571623277.898088</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.00506345759465174</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>21</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.04251623306484569</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.280660147446947</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.3783080901633346</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.280660147446947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3394575138.456935</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.00122075197353556</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.254885345728157</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7848607099094854</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.254885345728157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9136260060.617029</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001818668056868481</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.63898992147398</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9745590429750814</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.63898992147398</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5056523824.678355</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.00415233465022616</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.15166192554077</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.22922124662831</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.017066948295038</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.22922124662831</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>9103593569.077557</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003492662356680925</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.537590487498558</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.883229412628868</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.537590487498558</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>8173409758.036674</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004462029980931603</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.14657864320873</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9955899550503021</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.14657864320873</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7923243377.143147</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005634867212773239</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.856668055065323</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9194621140955498</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.856668055065323</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6961827363.914853</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002970953459357833</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8089280732745104</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.538691083994276</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1717426714786</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.538691083994276</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5129995170.006338</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009454141634266472</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.571647553554317</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9176434620675717</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.571647553554317</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4000849086.145403</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001699092229156042</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.486243723214563</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9113460076313621</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.486243723214563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5042356320.946025</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001250050071642458</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5765269695542402</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.556650815715546</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8409529843399262</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.556650815715546</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5169114196.29443</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004790618428798024</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.712553408761316</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8739223942643081</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.712553408761316</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5880318937.784879</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005308275018593073</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.41355370502252</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7952107758925906</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.41355370502252</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7657060388.87057</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001561213405090976</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.107721087027405</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8595109991152842</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.107721087027405</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5564335627.791455</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004574676943643216</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>16</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.726422055381097</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9863570735610678</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.726422055381097</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4783935023.638999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003328383608416557</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.848003866279277</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9348956126194987</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.848003866279277</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5207332335.845785</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00127281226246134</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>22</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7668418929861306</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.092507651336962</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.015377525667961</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.092507651336962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8814811172.168245</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003616480525667928</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>18</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.499394114227227</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971373</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.504187674948094</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.8842431194106891</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.504187674948094</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5578762049.051115</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.003765475126887843</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.726160349343364</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9135321636590944</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.726160349343364</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7625359303.167149</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001040916451733176</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>17</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.3222608438429118</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.651950433333915</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.694563958977091</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.651950433333915</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7196261270.61429</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002697291072831246</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>22</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090875</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.131012420868449</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8650045693132961</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.131012420868449</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6694492822.795367</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002846754375715665</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>20</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.435563196787398</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.957682949932979</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.435563196787398</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4800583348.067131</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001413081183230262</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>21</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.596843138841009</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-0.4777665429529546</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.596843138841009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6265060159.174329</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003087734022082469</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>13</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278147</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.98005944494361</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.854129880299169</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-2.98005944494361</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6481132901.818719</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004607258936637107</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.627235063747723</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7460728224150623</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.627235063747723</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4661807754.787229</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002322141890319256</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>17</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.540645207646968</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.315772758194013</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.540645207646968</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6954357873.518258</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003769987274310014</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>18</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.03870179640257069</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380638</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.47674115928902</v>
-      </c>
-      <c r="M36" t="n">
-        <v>-0.331425823296035</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.47674115928902</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5598106853.756405</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.00465457983909824</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>21</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.483107032787264</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9991383490990423</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.483107032787264</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4768869842.790168</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003823013804026356</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.464903256762374</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9083321345779526</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.464903256762374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4648616314.537368</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002511045110438764</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>14</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.982162678416787</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8691745719409012</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.982162678416787</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5513825825.779611</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.00451709344009425</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>20</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.552579672248032</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9661834591465573</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.552579672248032</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6664560884.265693</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.000974130801109449</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>13</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.90696501167766</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9341488043189498</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.90696501167766</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4972173107.331161</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.00463792596706615</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.377919154483357</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9731765950202217</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.377919154483357</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5693783463.124862</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00378484833533298</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>18</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.599782374605986</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9124668630381225</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.599782374605986</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>4865217575.865754</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.00215740563843401</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.38102292687759</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9244094827604076</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.38102292687759</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5930384344.01038</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001129410179267633</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>17</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.829534886903135</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9522796266786933</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.829534886903135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7243600036.943402</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003734368849763248</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>21</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.33488026850909</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8041578151798072</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.33488026850909</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7623481680.328914</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003322132091385275</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.279426864329407</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8786445617453469</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.279426864329407</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5639077009.551444</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003587934282955762</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.044360612499704</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9507606738806604</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.044360612499704</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5318866513.302495</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004307330414692002</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>22</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.392984963713858</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8602650654681054</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.392984963713858</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7106226081.250802</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003543853565882313</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4409630113179676</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.194306086918068</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.8990740595834672</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.194306086918068</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4066697017.750328</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004285175952958376</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>21</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656325</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.377527397047567</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9433627209291594</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.377527397047567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7578477376.877544</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001492170912943299</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>19</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.351503507463202</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8373270629937218</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.351503507463202</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4967638184.424864</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002645000534773838</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.377320168475806</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9016101575652632</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.377320168475806</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6568933330.300198</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004109150889606328</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>21</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.229777445502546</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8389923993642738</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.229777445502546</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8901006838.535763</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.00380235743633296</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.353356648081938</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8982027525418916</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.353356648081938</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5041807777.285993</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002356832191444186</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.454584804276676</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.8951446284009907</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.454584804276676</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6466832531.219532</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.00438409945128049</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>19</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.8140312516372743</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.376367021272235</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.048265319939214</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.376367021272235</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4850457508.857901</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002406478956588107</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.270766871122474</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8324299900614195</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.270766871122474</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7598986874.526791</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004530256678554468</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.381202526875045</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8801754989966641</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.381202526875045</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5649445526.547085</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003425931755601198</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.240344394271759</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8196639375690609</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.240344394271759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6035851514.516172</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005871504368776285</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>26</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.766245615206225</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.916337196770888</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.766245615206225</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6566830367.072452</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003938457960918065</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.000150377531317</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.862580692618892</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.000150377531317</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7945100907.997252</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004341075914616723</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>25</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.094442337374725</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8814483109014311</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.094442337374725</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5294402731.633961</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005233133407414564</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>16</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.578919555592352</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8882114219222342</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.578919555592352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6235026155.989992</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003943257732248177</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>24</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.623008953294582</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9701226617207095</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.623008953294582</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4415688635.404087</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002901984938014301</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>18</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.516433250021191</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8989243627461214</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.516433250021191</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6551624747.806864</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004941035678783589</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.787435335354191</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8769980829485142</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.787435335354191</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5903410970.873702</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002856130669087149</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>21</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.176513669568702</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7210599833995676</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.176513669568702</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4406853640.337104</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008380702782627495</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.069210313226368</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9824829639786568</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.069210313226368</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>8161740061.103686</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.00256400467883937</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7209036305912887</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.516049285659694</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.045660680320919</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.516049285659694</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>5083789165.991397</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002820602427849755</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.652461775982965</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7989335919879538</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.652461775982965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7685764715.897196</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002145229425818953</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5783673148040211</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.477043748813174</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.084416713467808</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.477043748813174</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>8073833246.250829</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001399469763011111</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.68073612934819</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9518871162774458</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.68073612934819</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6511411972.852825</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004174064312009037</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>19</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.355029594890787</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8602075274286252</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.355029594890787</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5538228041.967578</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003321698981137852</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>18</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.563244709927315</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8688584559617745</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.563244709927315</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6420049999.534286</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002218785050909652</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.451496263896876</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9195697714132448</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.451496263896876</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>4982014573.651989</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.003933326303210444</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>12</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.035946190660527</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9876709609446523</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.035946190660527</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7553671959.381273</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003131866827831913</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>19</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.455537439967517</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9121114863383134</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.455537439967517</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7215787222.038355</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002120067113172695</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>16</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6722564629562648</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.542616517885429</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.065083250990455</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.542616517885429</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7015689519.828709</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002376153198554378</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.60698025221495</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9594772957157488</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.60698025221495</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5716473923.875285</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.005104205893585579</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.04759479634562</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9765530216217528</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.04759479634562</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5496589244.785437</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.003693684753027199</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.441379620613895</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8879020835772079</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.441379620613895</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9071873864.697376</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003018626331118936</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>24</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6792372374064554</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.102533916527863</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9553706628766212</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.102533916527863</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5109217563.815358</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004560154580961482</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>22</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.2530659440379</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.234121065690299</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.5327842523112076</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.234121065690299</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3943249603.292076</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002683159831047369</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.201466383645918</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9020245459393987</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.201466383645918</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>9121269452.785467</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002393801562856903</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.208773249151963</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.52449445231829</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.4604024639630235</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.52449445231829</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3535991105.43804</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001666910324462579</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>25</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.117311874395834</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9613197813504386</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.117311874395834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6304015987.921813</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005816663384291061</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.552855288445644</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8517912796018922</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.552855288445644</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7532255327.075918</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00399386698543109</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.893191454238354</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9586463779044869</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.893191454238354</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6774714145.929833</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003322983194910071</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.5489077366746</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9450795132689054</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.5489077366746</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5729454923.365886</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004875481740516414</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.753252281672992</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8149370993368601</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.753252281672992</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4627281524.590782</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004128735992172314</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>14</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.861270727775604</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.049256591060175</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.861270727775604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5740183339.794648</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001676181889330362</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.379549373714036</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9128763231648368</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.379549373714036</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>4969634305.691128</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.0009902910617534846</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>15</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.752105947862014</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.002103860361508</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.752105947862014</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7162418140.264248</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002604699276670453</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>15</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.633362683556286</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9179966972204767</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.633362683556286</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6573277319.724347</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.00315260444833088</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>24</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.223259070950375</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9103325218559222</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.223259070950375</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7195517012.596283</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004914657790451665</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>17</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.8679800061155177</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.687849837995805</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.170674803385674</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.687849837995805</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6609488204.668387</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004887411656360419</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.363416770371308</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8585833416014661</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.363416770371308</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3944356364.57197</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00527254510751905</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>22</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.309496993277421</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8860186534374139</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.309496993277421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>3836621304.245896</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003400334433317124</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.8620459819622522</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.551269258001264</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.087430560014374</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.551269258001264</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7127174445.73268</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001410441818215732</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>20</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5430539180294917</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.646958597503007</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8809680623715547</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.646958597503007</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_92.xlsx
+++ b/output/fit_clients/fit_round_92.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6731347496.814695</v>
+        <v>2290088762.589462</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004784351583396767</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>23</v>
+        <v>0.09490148321514803</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04143445895236755</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1145044415.848897</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2175453998.066061</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1630286476006564</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04739571236446067</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6507513822.224977</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00475603569567964</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
+      <c r="J3" t="n">
+        <v>1087727066.187128</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6604347454.344088</v>
+        <v>3813185203.854263</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003023161273729755</v>
-      </c>
-      <c r="G4" t="b">
+        <v>0.1508783396491411</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03309095140917603</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>19</v>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1906592602.796204</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4640176677.823361</v>
+        <v>3272729313.677823</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004244148997803183</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.0721245654283872</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03738102323076031</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1636364708.543562</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6022504687.430658</v>
+        <v>2202429002.902851</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002805498361190488</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20</v>
+        <v>0.1167836789988112</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04997469731850084</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1101214509.049454</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>494</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2974939696.907827</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07730514268556304</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03903757056128176</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>539</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9157150437.886824</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0009748239089033176</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
+      <c r="I7" t="n">
+        <v>28</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1487469815.67983</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7735820043.300967</v>
+        <v>2829504440.334646</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003329858892214029</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>24</v>
+        <v>0.1904801172322589</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02745492644997389</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1414752260.180529</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6759189562.989166</v>
+        <v>1487192766.997746</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004222511766264855</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>28</v>
+        <v>0.1378770097319602</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03546056373759338</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>743596481.1926656</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3571623277.898088</v>
+        <v>5731939857.563714</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00506345759465174</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1467899129712757</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04457429562001038</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>39</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2865970084.683334</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3394575138.456935</v>
+        <v>3046403801.83875</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00122075197353556</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1282236012055053</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03982873401841942</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1523201847.014305</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>524</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2629983658.76825</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1705730465249416</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0451905461414981</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>537</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9136260060.617029</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.001818668056868481</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>26</v>
+      <c r="I12" t="n">
+        <v>32</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1314991813.449815</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5056523824.678355</v>
+        <v>4039785323.396841</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00415233465022616</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>19</v>
+        <v>0.0749247036263585</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02820272336610517</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2019892714.533362</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>9103593569.077557</v>
+        <v>2920837744.916333</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003492662356680925</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>21</v>
+        <v>0.1305526198995117</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0295413686653524</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1460418912.551349</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>8173409758.036674</v>
+        <v>1597581642.814931</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004462029980931603</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28</v>
+        <v>0.070827973589837</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04542733230890317</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>798790928.9493088</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7923243377.143147</v>
+        <v>2395078791.843049</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005634867212773239</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>29</v>
+        <v>0.0895557579439403</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03200458891539117</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1197539436.033981</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6961827363.914853</v>
+        <v>3648634927.522007</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002970953459357833</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>19</v>
+        <v>0.1264276026033615</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04309726767331863</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>27</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1824317515.667604</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5129995170.006338</v>
+        <v>3113879778.394769</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009454141634266472</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>26</v>
+        <v>0.1797489886225737</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02621483432172027</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1556939911.099304</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4000849086.145403</v>
+        <v>1132263461.231969</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001699092229156042</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.168407396607908</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01745139815969122</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>566131791.956991</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5042356320.946025</v>
+        <v>2571102542.421956</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001250050071642458</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.154609043033192</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03057768883548787</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1285551236.654945</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5169114196.29443</v>
+        <v>2150492811.86196</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004790618428798024</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>17</v>
+        <v>0.09919965689570216</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03043066321116118</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1075246427.430104</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5880318937.784879</v>
+        <v>3465842758.462175</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005308275018593073</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
+        <v>0.1287472570726465</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05557691133274261</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1732921412.790729</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7657060388.87057</v>
+        <v>1067630904.495214</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001561213405090976</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>17</v>
+        <v>0.1241848399126477</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03359608608099967</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>533815510.9501496</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5564335627.791455</v>
+        <v>3685485600.387673</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004574676943643216</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>24</v>
+        <v>0.101969999249427</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03662893144881896</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1842742789.253839</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4783935023.638999</v>
+        <v>1424619734.438338</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003328383608416557</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>20</v>
+        <v>0.1210418367095324</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02168869891886411</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>712309833.4394348</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5207332335.845785</v>
+        <v>1043076208.878405</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00127281226246134</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1125645526327083</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02822323747716733</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>521538086.9605152</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8814811172.168245</v>
+        <v>3321438246.414309</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003616480525667928</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>26</v>
+        <v>0.1430139053351505</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0180162638156338</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1660719167.010994</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5578762049.051115</v>
+        <v>3616978141.072743</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003765475126887843</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>23</v>
+        <v>0.118244278094345</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04550705230029967</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1808489135.229746</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7625359303.167149</v>
+        <v>5568763207.047656</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001040916451733176</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>23</v>
+        <v>0.1158591622460929</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04310181717385721</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>43</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2784381511.61545</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7196261270.61429</v>
+        <v>2072114521.615339</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002697291072831246</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>29</v>
+        <v>0.1121525422792833</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03328383758758734</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1036057306.382796</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6694492822.795367</v>
+        <v>967927802.2000151</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002846754375715665</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>18</v>
+        <v>0.1102756500820832</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05102284254143878</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>483963907.1131533</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4800583348.067131</v>
+        <v>1454505121.843807</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001413081183230262</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07803292535006343</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02781677846357209</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>727252619.7819507</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6265060159.174329</v>
+        <v>2048387157.551924</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003087734022082469</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>20</v>
+        <v>0.1948050780318601</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0390301976835333</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>26</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1024193655.369622</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6481132901.818719</v>
+        <v>1068227025.203629</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004607258936637107</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>28</v>
+        <v>0.1112939379129389</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02352744895294396</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>534113539.1665708</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4661807754.787229</v>
+        <v>1242984326.539857</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002322141890319256</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>24</v>
+        <v>0.1121431785526174</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.041736794640819</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>621492128.4911443</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6954357873.518258</v>
+        <v>2060844655.949223</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003769987274310014</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>26</v>
+        <v>0.1695284427931646</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02364500695757032</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1030422385.056401</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5598106853.756405</v>
+        <v>2010719656.23734</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00465457983909824</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>24</v>
+        <v>0.09255923906346301</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03491521449520946</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1005359856.799066</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4768869842.790168</v>
+        <v>1823064665.927227</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003823013804026356</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.0853490177911085</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03092485386735701</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>911532336.510052</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4648616314.537368</v>
+        <v>2042168445.785822</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002511045110438764</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1543548788699809</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.022830838808168</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1021084210.93564</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5513825825.779611</v>
+        <v>1318028493.684795</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00451709344009425</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1599799762875291</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0400083242136269</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>659014258.5308241</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6664560884.265693</v>
+        <v>2381647099.653247</v>
       </c>
       <c r="F41" t="n">
-        <v>0.000974130801109449</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>26</v>
+        <v>0.1448264573710329</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03446947864220703</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1190823586.64925</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4972173107.331161</v>
+        <v>2909750314.518329</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00463792596706615</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>22</v>
+        <v>0.1085725073278765</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04568453344796822</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1454875111.416062</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5693783463.124862</v>
+        <v>2499530305.552639</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00378484833533298</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>21</v>
+        <v>0.1251758802185539</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02362715924222449</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1249765201.393022</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>4865217575.865754</v>
+        <v>2032211803.87749</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00215740563843401</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>24</v>
+        <v>0.09548650551873922</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02244548379935977</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1016106014.631421</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5930384344.01038</v>
+        <v>1631182370.190033</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001129410179267633</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.1722077292128913</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0529182581023918</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>815591138.7279015</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7243600036.943402</v>
+        <v>5638172744.766994</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003734368849763248</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>15</v>
+        <v>0.1486673066784084</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0369358751310041</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>33</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2819086435.624029</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7623481680.328914</v>
+        <v>5172490231.253687</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003322132091385275</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1980062979427952</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0593260144247777</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2586245181.155299</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5639077009.551444</v>
+        <v>3091298375.871893</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003587934282955762</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>16</v>
+        <v>0.08416584807007599</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03385181732691409</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1545649275.022906</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5318866513.302495</v>
+        <v>1730765168.256181</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004307330414692002</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1462082381557956</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02781358563445195</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>865382580.180856</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7106226081.250802</v>
+        <v>3336824814.16915</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003543853565882313</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>25</v>
+        <v>0.1711449973031026</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03251773520282989</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1668412442.868551</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4066697017.750328</v>
+        <v>1527495187.737914</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004285175952958376</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1307493263994656</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04588236711319957</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>763747592.2837187</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7578477376.877544</v>
+        <v>3933183606.657976</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001492170912943299</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>22</v>
+        <v>0.1330738671854589</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05906846567457251</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>38</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1966591863.668665</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4967638184.424864</v>
+        <v>2969744586.840138</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002645000534773838</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>18</v>
+        <v>0.1464013932309718</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02673372703694414</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1484872327.837229</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6568933330.300198</v>
+        <v>4821789519.349828</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004109150889606328</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>22</v>
+        <v>0.1336100899254394</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03897504904960677</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>30</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2410894888.179654</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8901006838.535763</v>
+        <v>3902591648.177915</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00380235743633296</v>
-      </c>
-      <c r="G55" t="b">
+        <v>0.1525411276867329</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03057974877343875</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="H55" t="n">
-        <v>29</v>
+      <c r="I55" t="n">
+        <v>26</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1951295794.624546</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5041807777.285993</v>
+        <v>1220313246.943389</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002356832191444186</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.1233983083474877</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05745567403435443</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>610156707.0887678</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6466832531.219532</v>
+        <v>2999008552.322054</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00438409945128049</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1143387297478437</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01774962918614536</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>30</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1499504280.418571</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4850457508.857901</v>
+        <v>1384842161.62024</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002406478956588107</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>21</v>
+        <v>0.1875441979071686</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02445035286254525</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>692421122.3664052</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7598986874.526791</v>
+        <v>3281576755.476792</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004530256678554468</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.08598473299775311</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03099307923306546</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1640788388.275928</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5649445526.547085</v>
+        <v>3541615548.184971</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003425931755601198</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1313303846904587</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0213178298998756</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1770807901.160288</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6035851514.516172</v>
+        <v>2705175375.021973</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005871504368776285</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20</v>
+        <v>0.1604543663313796</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02266138598374608</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>31</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1352587695.70504</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6566830367.072452</v>
+        <v>1683669772.215345</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003938457960918065</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>15</v>
+        <v>0.1287303485296741</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03284477223877632</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>841834896.6605219</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7945100907.997252</v>
+        <v>3807668575.68959</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004341075914616723</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
+        <v>0.07828754412533204</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0341877468616559</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1903834358.746467</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5294402731.633961</v>
+        <v>4369299459.502599</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005233133407414564</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1272136644653274</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02983041908197853</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>29</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2184649791.516949</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6235026155.989992</v>
+        <v>4851449662.541451</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003943257732248177</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>23</v>
+        <v>0.1571982424716666</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.03200790030788562</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>34</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2425724798.968554</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4415688635.404087</v>
+        <v>4377360090.294705</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002901984938014301</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>20</v>
+        <v>0.1092485845201479</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04502962936146376</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>27</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2188680038.862063</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6551624747.806864</v>
+        <v>3460932431.07676</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004941035678783589</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>19</v>
+        <v>0.09526373606872326</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04380028526183103</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>29</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1730466194.683564</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5903410970.873702</v>
+        <v>5284615558.997514</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002856130669087149</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>19</v>
+        <v>0.1227759976638869</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03483268649445023</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>29</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2642307853.064939</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4406853640.337104</v>
+        <v>1822440878.355375</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008380702782627495</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.156281804786897</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04912568011785882</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>911220421.0827452</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>8161740061.103686</v>
+        <v>2378590712.813723</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00256400467883937</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.08367924169261058</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0441275294625076</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1189295292.871859</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5083789165.991397</v>
+        <v>4102853825.865868</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002820602427849755</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1605119781283021</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02569545255908819</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>33</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2051426951.603308</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7685764715.897196</v>
+        <v>2181744358.545736</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002145229425818953</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>19</v>
+        <v>0.08851708581131523</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03318564608440343</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1090872096.199165</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>8073833246.250829</v>
+        <v>2675329907.762471</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001399469763011111</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>22</v>
+        <v>0.09517200192098557</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04461830242188188</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>35</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1337664979.508125</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6511411972.852825</v>
+        <v>2447404989.316243</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004174064312009037</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>21</v>
+        <v>0.1324829729563566</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02952906119502795</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>31</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1223702607.73154</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5538228041.967578</v>
+        <v>1973493849.53629</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003321698981137852</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>17</v>
+        <v>0.1227659342083772</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02775048162493265</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>986746891.338037</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6420049999.534286</v>
+        <v>5211388161.011578</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002218785050909652</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>19</v>
+        <v>0.1006713096545585</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03089713800904599</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>20</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2605694115.967394</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>4982014573.651989</v>
+        <v>2158985934.026782</v>
       </c>
       <c r="F77" t="n">
-        <v>0.003933326303210444</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>31</v>
+        <v>0.1712973983160596</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02537374381382331</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1079493051.921434</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7553671959.381273</v>
+        <v>3825368111.290357</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003131866827831913</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.1166669695902795</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03917489029149854</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>33</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1912684033.810394</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7215787222.038355</v>
+        <v>1387006706.244766</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002120067113172695</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>21</v>
+        <v>0.1239621433325585</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02840392803726086</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>693503367.507607</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7015689519.828709</v>
+        <v>4753911402.892347</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002376153198554378</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>30</v>
+        <v>0.08276660811760739</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02980682486950542</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>19</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2376955738.32886</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5716473923.875285</v>
+        <v>4069803881.576826</v>
       </c>
       <c r="F81" t="n">
-        <v>0.005104205893585579</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.0877981084032472</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02323042141934564</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2034901906.532435</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5496589244.785437</v>
+        <v>3891172504.849334</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003693684753027199</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.1707654155054159</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02264574853521159</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1945586298.180651</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9071873864.697376</v>
+        <v>1903303012.210344</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003018626331118936</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>27</v>
+        <v>0.09843365065142017</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03698272541848992</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>951651479.3383394</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5109217563.815358</v>
+        <v>1643167882.449035</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004560154580961482</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>25</v>
+        <v>0.08501699880246928</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0339630232007576</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>821583998.3861672</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3943249603.292076</v>
+        <v>3673728851.44809</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002683159831047369</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1722901822308129</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03733299225185722</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>35</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1836864560.165461</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>9121269452.785467</v>
+        <v>2300611295.052091</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002393801562856903</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>28</v>
+        <v>0.1559914796115063</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02083563796060715</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1150305716.887757</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3535991105.43804</v>
+        <v>1063572716.996491</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001666910324462579</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1319374201865536</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0407777626890341</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>531786379.0385074</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6304015987.921813</v>
+        <v>3029701085.088184</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005816663384291061</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.1172355491332563</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02859103990147601</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>36</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1514850575.84523</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>513</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2664678774.662643</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1496864793835921</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02710006651283367</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="D89" t="n">
-        <v>473</v>
-      </c>
-      <c r="E89" t="n">
-        <v>7532255327.075918</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.00399386698543109</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>20</v>
+      <c r="I89" t="n">
+        <v>30</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1332339449.954392</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6774714145.929833</v>
+        <v>1520048510.591317</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003322983194910071</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>17</v>
+        <v>0.1245218443690911</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04431453014802555</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>760024237.6026207</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5729454923.365886</v>
+        <v>1278261319.654273</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004875481740516414</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>27</v>
+        <v>0.1610405646401728</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03840662787347506</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>639130728.2034553</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4627281524.590782</v>
+        <v>2242407893.56153</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004128735992172314</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07080115345779529</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04300372576080679</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1121203911.198039</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5740183339.794648</v>
+        <v>3187963317.527237</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001676181889330362</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>31</v>
+        <v>0.0870404149429065</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03668398293606064</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>28</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1593981711.823258</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>4969634305.691128</v>
+        <v>1952333749.580403</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0009902910617534846</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>30</v>
+        <v>0.1470029013998369</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03981503809904861</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>976166866.8511583</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7162418140.264248</v>
+        <v>3106485634.059298</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002604699276670453</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>23</v>
+        <v>0.09484809445747205</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0530705255672848</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>22</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1553242808.932409</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6573277319.724347</v>
+        <v>1679559969.489679</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00315260444833088</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>24</v>
+        <v>0.08824511894477968</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03771284920647502</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>839780005.8588395</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7195517012.596283</v>
+        <v>3248738994.870409</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004914657790451665</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>24</v>
+        <v>0.1466706410605141</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02646977100171234</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>29</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1624369493.330544</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6609488204.668387</v>
+        <v>2500663202.482711</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004887411656360419</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>34</v>
+        <v>0.1094818840993909</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02693987556852218</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>24</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1250331552.004359</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3944356364.57197</v>
+        <v>2128091280.113149</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00527254510751905</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1045118279274627</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0255144853376272</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>29</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1064045562.744793</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3836621304.245896</v>
+        <v>4524092706.863482</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003400334433317124</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1775508858833146</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02256454737638975</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>28</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2262046465.849887</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
+        <v>4</v>
+      </c>
+      <c r="D101" t="n">
+        <v>584</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2617827480.513675</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1405833125912907</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04153439767214243</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="D101" t="n">
-        <v>573</v>
-      </c>
-      <c r="E101" t="n">
-        <v>7127174445.73268</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.001410441818215732</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>30</v>
+      <c r="I101" t="n">
+        <v>39</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1308913778.720587</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_92.xlsx
+++ b/output/fit_clients/fit_round_92.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2290088762.589462</v>
+        <v>2297815983.689682</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09490148321514803</v>
+        <v>0.07452207063807167</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04143445895236755</v>
+        <v>0.03912754652042187</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1145044415.848897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2175453998.066061</v>
+        <v>2425737860.623188</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1630286476006564</v>
+        <v>0.1572140873339792</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04739571236446067</v>
+        <v>0.03618098787989737</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1087727066.187128</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3813185203.854263</v>
+        <v>4748177181.081924</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1508783396491411</v>
+        <v>0.1502453860722329</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03309095140917603</v>
+        <v>0.02374555809152148</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1906592602.796204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3272729313.677823</v>
+        <v>3135175895.306325</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0721245654283872</v>
+        <v>0.08870396832654227</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03738102323076031</v>
+        <v>0.04032411906914704</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1636364708.543562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2202429002.902851</v>
+        <v>1959575760.898899</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1167836789988112</v>
+        <v>0.1399044191879105</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04997469731850084</v>
+        <v>0.04976073306386168</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1101214509.049454</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2974939696.907827</v>
+        <v>2867305392.701535</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07730514268556304</v>
+        <v>0.07857514024980067</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03903757056128176</v>
+        <v>0.03890625337353092</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>28</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1487469815.67983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2829504440.334646</v>
+        <v>2632871787.953612</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1904801172322589</v>
+        <v>0.2213062383873875</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02745492644997389</v>
+        <v>0.02610511868326199</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>31</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1414752260.180529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1487192766.997746</v>
+        <v>2153917814.012959</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1378770097319602</v>
+        <v>0.1659699976084552</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03546056373759338</v>
+        <v>0.03706121819604051</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>743596481.1926656</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5731939857.563714</v>
+        <v>5130536540.578236</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1467899129712757</v>
+        <v>0.1543524565383927</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04457429562001038</v>
+        <v>0.04396584848808778</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>39</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2865970084.683334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3046403801.83875</v>
+        <v>3628585208.244326</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1282236012055053</v>
+        <v>0.1366980934146513</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03982873401841942</v>
+        <v>0.03437943246849488</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>38</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1523201847.014305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2629983658.76825</v>
+        <v>2013187728.9531</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1705730465249416</v>
+        <v>0.1743059778839425</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0451905461414981</v>
+        <v>0.03844083936014246</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>32</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1314991813.449815</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4039785323.396841</v>
+        <v>3474601080.819418</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0749247036263585</v>
+        <v>0.09083566770771324</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02820272336610517</v>
+        <v>0.02455206290830268</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>31</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2019892714.533362</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2920837744.916333</v>
+        <v>2878083835.426961</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1305526198995117</v>
+        <v>0.1495193318974594</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0295413686653524</v>
+        <v>0.04029303427701755</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>29</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1460418912.551349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1597581642.814931</v>
+        <v>1170816421.733856</v>
       </c>
       <c r="F15" t="n">
-        <v>0.070827973589837</v>
+        <v>0.1083812033411615</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04542733230890317</v>
+        <v>0.04831234822849191</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>798790928.9493088</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2395078791.843049</v>
+        <v>2438778482.08392</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0895557579439403</v>
+        <v>0.08820109055852117</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03200458891539117</v>
+        <v>0.03846167621683378</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1197539436.033981</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3648634927.522007</v>
+        <v>4811438107.427687</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1264276026033615</v>
+        <v>0.1345235169030007</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04309726767331863</v>
+        <v>0.04428700053738067</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1824317515.667604</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3113879778.394769</v>
+        <v>2495322212.18501</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1797489886225737</v>
+        <v>0.1534457795492018</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02621483432172027</v>
+        <v>0.02519891602693174</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>30</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1556939911.099304</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1132263461.231969</v>
+        <v>850698042.516495</v>
       </c>
       <c r="F19" t="n">
-        <v>0.168407396607908</v>
+        <v>0.1560098632442637</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01745139815969122</v>
+        <v>0.01852615052169242</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>566131791.956991</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2571102542.421956</v>
+        <v>2117063657.459296</v>
       </c>
       <c r="F20" t="n">
-        <v>0.154609043033192</v>
+        <v>0.1553275670023803</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03057768883548787</v>
+        <v>0.02728541238840542</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1285551236.654945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2150492811.86196</v>
+        <v>2055209661.826749</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09919965689570216</v>
+        <v>0.06897400754708009</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03043066321116118</v>
+        <v>0.03682205795222959</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1075246427.430104</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3465842758.462175</v>
+        <v>3790785463.244397</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1287472570726465</v>
+        <v>0.1084690425341812</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05557691133274261</v>
+        <v>0.05630251024747196</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1732921412.790729</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1067630904.495214</v>
+        <v>1017883938.998028</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1241848399126477</v>
+        <v>0.1810407383955759</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03359608608099967</v>
+        <v>0.05063448854608212</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>533815510.9501496</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3685485600.387673</v>
+        <v>3706025188.035579</v>
       </c>
       <c r="F24" t="n">
-        <v>0.101969999249427</v>
+        <v>0.1341125221712568</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03662893144881896</v>
+        <v>0.0318299892443215</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>27</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1842742789.253839</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1424619734.438338</v>
+        <v>1362287677.492877</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1210418367095324</v>
+        <v>0.09188151605206683</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02168869891886411</v>
+        <v>0.02536971765599878</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>712309833.4394348</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1043076208.878405</v>
+        <v>1364845559.00023</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1125645526327083</v>
+        <v>0.1137840220598485</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02822323747716733</v>
+        <v>0.02513421774217497</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>521538086.9605152</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3321438246.414309</v>
+        <v>2972598875.625965</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1430139053351505</v>
+        <v>0.123219409919487</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0180162638156338</v>
+        <v>0.01960199698389627</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1660719167.010994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3616978141.072743</v>
+        <v>3789748349.191642</v>
       </c>
       <c r="F28" t="n">
-        <v>0.118244278094345</v>
+        <v>0.1153083596469698</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04550705230029967</v>
+        <v>0.04637377612812114</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>30</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1808489135.229746</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5568763207.047656</v>
+        <v>3742539825.140469</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1158591622460929</v>
+        <v>0.1466981426646235</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04310181717385721</v>
+        <v>0.03182882833104127</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>43</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2784381511.61545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2072114521.615339</v>
+        <v>2229480014.588213</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1121525422792833</v>
+        <v>0.09594517695045403</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03328383758758734</v>
+        <v>0.03312407677450448</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1036057306.382796</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>967927802.2000151</v>
+        <v>1329142086.732433</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1102756500820832</v>
+        <v>0.07019966642282263</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05102284254143878</v>
+        <v>0.04062119886559809</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>483963907.1131533</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1454505121.843807</v>
+        <v>1420413665.712416</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07803292535006343</v>
+        <v>0.09943996757134402</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02781677846357209</v>
+        <v>0.0250923317059579</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>727252619.7819507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2048387157.551924</v>
+        <v>2760122659.277146</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1948050780318601</v>
+        <v>0.1611669713859324</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0390301976835333</v>
+        <v>0.04125672865683139</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>26</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1024193655.369622</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1068227025.203629</v>
+        <v>1321109932.272774</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1112939379129389</v>
+        <v>0.1111367614679405</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02352744895294396</v>
+        <v>0.02560507840014026</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>534113539.1665708</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1242984326.539857</v>
+        <v>1212172818.652966</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1121431785526174</v>
+        <v>0.07678746184644596</v>
       </c>
       <c r="G35" t="n">
-        <v>0.041736794640819</v>
+        <v>0.03333073010888298</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>621492128.4911443</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2060844655.949223</v>
+        <v>2308281666.93389</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1695284427931646</v>
+        <v>0.1164530900557206</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02364500695757032</v>
+        <v>0.02763804044169219</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>24</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1030422385.056401</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2010719656.23734</v>
+        <v>2651672527.326672</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09255923906346301</v>
+        <v>0.07275169290822607</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03491521449520946</v>
+        <v>0.03424930037677641</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1005359856.799066</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1823064665.927227</v>
+        <v>1733772421.746168</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0853490177911085</v>
+        <v>0.122547600028262</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03092485386735701</v>
+        <v>0.02644362762812416</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>911532336.510052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2042168445.785822</v>
+        <v>1415101553.954935</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1543548788699809</v>
+        <v>0.1721802865566492</v>
       </c>
       <c r="G39" t="n">
-        <v>0.022830838808168</v>
+        <v>0.02541307781616542</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1021084210.93564</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1318028493.684795</v>
+        <v>1438424123.588653</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1599799762875291</v>
+        <v>0.1501759557588866</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0400083242136269</v>
+        <v>0.04649104306734986</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>659014258.5308241</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2381647099.653247</v>
+        <v>2135181533.838101</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1448264573710329</v>
+        <v>0.1626270881004236</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03446947864220703</v>
+        <v>0.04476944895097495</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1190823586.64925</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2909750314.518329</v>
+        <v>3713121869.507154</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1085725073278765</v>
+        <v>0.07965094369910349</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04568453344796822</v>
+        <v>0.02948419330084416</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>32</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1454875111.416062</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2499530305.552639</v>
+        <v>2505640617.590765</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1251758802185539</v>
+        <v>0.1578696083018249</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02362715924222449</v>
+        <v>0.02536623423394681</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1249765201.393022</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2032211803.87749</v>
+        <v>2298679277.529172</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09548650551873922</v>
+        <v>0.08589756846430317</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02244548379935977</v>
+        <v>0.02767005913724927</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1016106014.631421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1631182370.190033</v>
+        <v>1741718006.755043</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1722077292128913</v>
+        <v>0.1316515075553659</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0529182581023918</v>
+        <v>0.03724571759361661</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>815591138.7279015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5638172744.766994</v>
+        <v>4805259599.778219</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1486673066784084</v>
+        <v>0.1358493428830368</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0369358751310041</v>
+        <v>0.04884551066710352</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>33</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2819086435.624029</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5172490231.253687</v>
+        <v>4603316092.099293</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1980062979427952</v>
+        <v>0.1685588248622574</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0593260144247777</v>
+        <v>0.05634860066297963</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>25</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2586245181.155299</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3091298375.871893</v>
+        <v>4325544143.579037</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08416584807007599</v>
+        <v>0.0918967731517004</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03385181732691409</v>
+        <v>0.02605159141804431</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>31</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1545649275.022906</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1730765168.256181</v>
+        <v>1798429421.154776</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1462082381557956</v>
+        <v>0.1307999639427551</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02781358563445195</v>
+        <v>0.02847084204584501</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>865382580.180856</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3336824814.16915</v>
+        <v>3288031874.064624</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1711449973031026</v>
+        <v>0.1717829190764221</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03251773520282989</v>
+        <v>0.04460610802488337</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>31</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1668412442.868551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1527495187.737914</v>
+        <v>1327307214.711294</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1307493263994656</v>
+        <v>0.1545603222901172</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04588236711319957</v>
+        <v>0.04727966885212368</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>763747592.2837187</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3933183606.657976</v>
+        <v>3859136004.35877</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1330738671854589</v>
+        <v>0.1122144833396471</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05906846567457251</v>
+        <v>0.05715901913176814</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>38</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1966591863.668665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2969744586.840138</v>
+        <v>2655896575.312138</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1464013932309718</v>
+        <v>0.1533350017455108</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02673372703694414</v>
+        <v>0.03557126902471893</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>26</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1484872327.837229</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4821789519.349828</v>
+        <v>3583861526.606772</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1336100899254394</v>
+        <v>0.1346532489021513</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03897504904960677</v>
+        <v>0.03449513957781251</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>30</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2410894888.179654</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3902591648.177915</v>
+        <v>3302830742.681028</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1525411276867329</v>
+        <v>0.1666598647057423</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03057974877343875</v>
+        <v>0.02530253066458071</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>26</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1951295794.624546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1220313246.943389</v>
+        <v>1573205568.097698</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1233983083474877</v>
+        <v>0.1179064718973468</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05745567403435443</v>
+        <v>0.04307974169265141</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>610156707.0887678</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2999008552.322054</v>
+        <v>3760223936.697105</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1143387297478437</v>
+        <v>0.11753426387702</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01774962918614536</v>
+        <v>0.0264096303488617</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>30</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1499504280.418571</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1384842161.62024</v>
+        <v>1265389109.425068</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1875441979071686</v>
+        <v>0.1698585734887579</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02445035286254525</v>
+        <v>0.02615676447779774</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>692421122.3664052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3281576755.476792</v>
+        <v>3281568781.364084</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08598473299775311</v>
+        <v>0.1220334034366974</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03099307923306546</v>
+        <v>0.0350103686116884</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1640788388.275928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3541615548.184971</v>
+        <v>3723466118.697501</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1313303846904587</v>
+        <v>0.170673952809673</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0213178298998756</v>
+        <v>0.02943215605530096</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>29</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1770807901.160288</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2705175375.021973</v>
+        <v>3333758578.843728</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1604543663313796</v>
+        <v>0.1369135474137216</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02266138598374608</v>
+        <v>0.02146059214717743</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>31</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1352587695.70504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1683669772.215345</v>
+        <v>1793816768.492269</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1287303485296741</v>
+        <v>0.1833790970781894</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03284477223877632</v>
+        <v>0.03676221637210006</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>841834896.6605219</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3807668575.68959</v>
+        <v>3523696167.899745</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07828754412533204</v>
+        <v>0.09009102332808214</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0341877468616559</v>
+        <v>0.04344290705837342</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>26</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1903834358.746467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4369299459.502599</v>
+        <v>4610824714.053539</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1272136644653274</v>
+        <v>0.1233739774191178</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02983041908197853</v>
+        <v>0.03289443378220076</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>29</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2184649791.516949</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4851449662.541451</v>
+        <v>4323422276.739714</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1571982424716666</v>
+        <v>0.1387137245791981</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03200790030788562</v>
+        <v>0.0262404661844567</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>34</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2425724798.968554</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4377360090.294705</v>
+        <v>5125898473.679561</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1092485845201479</v>
+        <v>0.1176098493136283</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04502962936146376</v>
+        <v>0.0444921685136643</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>27</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2188680038.862063</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3460932431.07676</v>
+        <v>2676841947.290866</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09526373606872326</v>
+        <v>0.08553415136016602</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04380028526183103</v>
+        <v>0.05152312499768286</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>29</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1730466194.683564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5284615558.997514</v>
+        <v>4171023397.195664</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1227759976638869</v>
+        <v>0.1070210343505058</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03483268649445023</v>
+        <v>0.04304896082391235</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>29</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2642307853.064939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1822440878.355375</v>
+        <v>2479429956.624548</v>
       </c>
       <c r="F69" t="n">
-        <v>0.156281804786897</v>
+        <v>0.1258643997861255</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04912568011785882</v>
+        <v>0.0365487450277598</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>911220421.0827452</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2378590712.813723</v>
+        <v>3039261011.688459</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08367924169261058</v>
+        <v>0.08735701372609636</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0441275294625076</v>
+        <v>0.04869980153266508</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>26</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1189295292.871859</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4102853825.865868</v>
+        <v>4988675201.028184</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1605119781283021</v>
+        <v>0.1335859456475431</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02569545255908819</v>
+        <v>0.02470917230949045</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>33</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2051426951.603308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2181744358.545736</v>
+        <v>1477491637.140055</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08851708581131523</v>
+        <v>0.0770167592160463</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03318564608440343</v>
+        <v>0.04564586257933002</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1090872096.199165</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2675329907.762471</v>
+        <v>3581156710.051747</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09517200192098557</v>
+        <v>0.07253344048301909</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04461830242188188</v>
+        <v>0.04664740574700779</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>35</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1337664979.508125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2447404989.316243</v>
+        <v>2420299601.087521</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1324829729563566</v>
+        <v>0.1504877444305729</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02952906119502795</v>
+        <v>0.02370118237358363</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>31</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1223702607.73154</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1973493849.53629</v>
+        <v>1766158489.766074</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1227659342083772</v>
+        <v>0.1098060217490625</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02775048162493265</v>
+        <v>0.02313289163243903</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>986746891.338037</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5211388161.011578</v>
+        <v>4586394071.05945</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1006713096545585</v>
+        <v>0.1213194978484745</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03089713800904599</v>
+        <v>0.02561049495335962</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2605694115.967394</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2158985934.026782</v>
+        <v>2261315356.917151</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1712973983160596</v>
+        <v>0.138611535682257</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02537374381382331</v>
+        <v>0.02238911583304884</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1079493051.921434</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3825368111.290357</v>
+        <v>4634867657.549856</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1166669695902795</v>
+        <v>0.1172659175019598</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03917489029149854</v>
+        <v>0.05571907773704555</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>33</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1912684033.810394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1387006706.244766</v>
+        <v>1218159677.884168</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1239621433325585</v>
+        <v>0.1667464467809187</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02840392803726086</v>
+        <v>0.03049696387658619</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>693503367.507607</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4753911402.892347</v>
+        <v>5125792051.326391</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08276660811760739</v>
+        <v>0.09857735805386673</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02980682486950542</v>
+        <v>0.0276334316932409</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>19</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2376955738.32886</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4069803881.576826</v>
+        <v>4162321301.751357</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0877981084032472</v>
+        <v>0.1162682569523741</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02323042141934564</v>
+        <v>0.02541781222127535</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2034901906.532435</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3891172504.849334</v>
+        <v>4903793286.107871</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1707654155054159</v>
+        <v>0.1409576562145906</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02264574853521159</v>
+        <v>0.01914594566756104</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1945586298.180651</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1903303012.210344</v>
+        <v>1934595081.459465</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09843365065142017</v>
+        <v>0.09568382349340088</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03698272541848992</v>
+        <v>0.04047675513497917</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>951651479.3383394</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1643167882.449035</v>
+        <v>2264546149.04304</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08501699880246928</v>
+        <v>0.09119512985328811</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0339630232007576</v>
+        <v>0.04586400756258362</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>821583998.3861672</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3673728851.44809</v>
+        <v>3168241877.901194</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1722901822308129</v>
+        <v>0.1790353414692783</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03733299225185722</v>
+        <v>0.04784529678599505</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>35</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1836864560.165461</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2300611295.052091</v>
+        <v>2166932253.595826</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1559914796115063</v>
+        <v>0.1504622287708524</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02083563796060715</v>
+        <v>0.02529531692329954</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1150305716.887757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1063572716.996491</v>
+        <v>1257555409.693564</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1319374201865536</v>
+        <v>0.1754179877953052</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0407777626890341</v>
+        <v>0.03256849988768216</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>531786379.0385074</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3029701085.088184</v>
+        <v>3064202493.687219</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1172355491332563</v>
+        <v>0.1765979293652595</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02859103990147601</v>
+        <v>0.02469448685036092</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>36</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1514850575.84523</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2664678774.662643</v>
+        <v>2723155171.770711</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1496864793835921</v>
+        <v>0.09969502909035387</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02710006651283367</v>
+        <v>0.03963753292256707</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>30</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1332339449.954392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1520048510.591317</v>
+        <v>1732699509.853469</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1245218443690911</v>
+        <v>0.1184209565697033</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04431453014802555</v>
+        <v>0.05381098819822414</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>760024237.6026207</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1278261319.654273</v>
+        <v>1809630804.155974</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1610405646401728</v>
+        <v>0.1189953225501269</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03840662787347506</v>
+        <v>0.0595198550256336</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>639130728.2034553</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2242407893.56153</v>
+        <v>2974487568.243273</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07080115345779529</v>
+        <v>0.06896238317261261</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04300372576080679</v>
+        <v>0.04665476199104963</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1121203911.198039</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3187963317.527237</v>
+        <v>3440856287.062188</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0870404149429065</v>
+        <v>0.1032471754235306</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03668398293606064</v>
+        <v>0.04632655782924264</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>28</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1593981711.823258</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1952333749.580403</v>
+        <v>1599742564.63917</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1470029013998369</v>
+        <v>0.1454789595882977</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03981503809904861</v>
+        <v>0.03495897209970552</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>976166866.8511583</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3106485634.059298</v>
+        <v>2339016886.579933</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09484809445747205</v>
+        <v>0.1024485876544581</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0530705255672848</v>
+        <v>0.0481944271665243</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>22</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1553242808.932409</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1679559969.489679</v>
+        <v>1632478199.669258</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08824511894477968</v>
+        <v>0.1410370087099925</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03771284920647502</v>
+        <v>0.04494051143401372</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>839780005.8588395</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3248738994.870409</v>
+        <v>3249189639.153132</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1466706410605141</v>
+        <v>0.1730306240306355</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02646977100171234</v>
+        <v>0.02046237139172978</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>29</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1624369493.330544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2500663202.482711</v>
+        <v>3076956384.811582</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1094818840993909</v>
+        <v>0.1195587346534524</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02693987556852218</v>
+        <v>0.02093388760577283</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>24</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1250331552.004359</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2128091280.113149</v>
+        <v>2951623565.973767</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1045118279274627</v>
+        <v>0.0913590970729138</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0255144853376272</v>
+        <v>0.03461555307288978</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>29</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1064045562.744793</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4524092706.863482</v>
+        <v>3951906794.306551</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1775508858833146</v>
+        <v>0.1306759718498346</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02256454737638975</v>
+        <v>0.02514328801621131</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>28</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2262046465.849887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2617827480.513675</v>
+        <v>3067802737.091435</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1405833125912907</v>
+        <v>0.1761396649690419</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04153439767214243</v>
+        <v>0.04082935543952258</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>39</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1308913778.720587</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_92.xlsx
+++ b/output/fit_clients/fit_round_92.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2297815983.689682</v>
+        <v>2264512521.198293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07452207063807167</v>
+        <v>0.1004045928602355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03912754652042187</v>
+        <v>0.04354773550314728</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2425737860.623188</v>
+        <v>1708134104.011878</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1572140873339792</v>
+        <v>0.1400693590306704</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03618098787989737</v>
+        <v>0.03240579008468056</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4748177181.081924</v>
+        <v>3795256865.343517</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1502453860722329</v>
+        <v>0.103971309616686</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02374555809152148</v>
+        <v>0.02551849175668828</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3135175895.306325</v>
+        <v>4110323667.013605</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08870396832654227</v>
+        <v>0.1091673001444786</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04032411906914704</v>
+        <v>0.03432029848270282</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1959575760.898899</v>
+        <v>2319646094.284383</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1399044191879105</v>
+        <v>0.1050020252484407</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04976073306386168</v>
+        <v>0.05010473528775988</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2867305392.701535</v>
+        <v>2397036812.968313</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07857514024980067</v>
+        <v>0.09522626600887381</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03890625337353092</v>
+        <v>0.04353013444789328</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2632871787.953612</v>
+        <v>3085733305.894487</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2213062383873875</v>
+        <v>0.1828341911361764</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02610511868326199</v>
+        <v>0.0260512273782139</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2153917814.012959</v>
+        <v>1898608470.459731</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1659699976084552</v>
+        <v>0.1296570910145646</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03706121819604051</v>
+        <v>0.03650593552983569</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5130536540.578236</v>
+        <v>5686392085.028472</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1543524565383927</v>
+        <v>0.1851563458742991</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04396584848808778</v>
+        <v>0.05331925077621086</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3628585208.244326</v>
+        <v>3390864150.135701</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1366980934146513</v>
+        <v>0.1232808213708484</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03437943246849488</v>
+        <v>0.03010559193751942</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2013187728.9531</v>
+        <v>3085663404.559889</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1743059778839425</v>
+        <v>0.1793627228640649</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03844083936014246</v>
+        <v>0.03682238574745408</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3474601080.819418</v>
+        <v>4042112529.413013</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09083566770771324</v>
+        <v>0.09010890817628736</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02455206290830268</v>
+        <v>0.03001976997349511</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2878083835.426961</v>
+        <v>2727645320.991656</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1495193318974594</v>
+        <v>0.1664879771827621</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04029303427701755</v>
+        <v>0.03167512415226399</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1170816421.733856</v>
+        <v>1686087691.507165</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1083812033411615</v>
+        <v>0.09153856075548163</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04831234822849191</v>
+        <v>0.04622696071649143</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2438778482.08392</v>
+        <v>2367862230.647931</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08820109055852117</v>
+        <v>0.1072117290442075</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03846167621683378</v>
+        <v>0.03124462447260281</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4811438107.427687</v>
+        <v>3897274630.282538</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1345235169030007</v>
+        <v>0.1649339023563796</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04428700053738067</v>
+        <v>0.0508031243234038</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2495322212.18501</v>
+        <v>2898217255.147633</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1534457795492018</v>
+        <v>0.129232472557393</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02519891602693174</v>
+        <v>0.02870673305600703</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>850698042.516495</v>
+        <v>839953048.21385</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1560098632442637</v>
+        <v>0.1851199579093196</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01852615052169242</v>
+        <v>0.02449054699236535</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2117063657.459296</v>
+        <v>2243038229.571455</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1553275670023803</v>
+        <v>0.1277083412331012</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02728541238840542</v>
+        <v>0.03100438128218983</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2055209661.826749</v>
+        <v>1911336008.186139</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06897400754708009</v>
+        <v>0.07062939301258157</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03682205795222959</v>
+        <v>0.02856688966838967</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3790785463.244397</v>
+        <v>2977978777.779519</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1084690425341812</v>
+        <v>0.1321882613370963</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05630251024747196</v>
+        <v>0.05717736489057781</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1017883938.998028</v>
+        <v>1249975164.827109</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810407383955759</v>
+        <v>0.1162844830322205</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05063448854608212</v>
+        <v>0.04423799512786902</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3706025188.035579</v>
+        <v>2928512307.710129</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1341125221712568</v>
+        <v>0.1110781203101091</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0318299892443215</v>
+        <v>0.0366295399825588</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1362287677.492877</v>
+        <v>1254009698.35357</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09188151605206683</v>
+        <v>0.09872622603028008</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02536971765599878</v>
+        <v>0.02120683319728955</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1364845559.00023</v>
+        <v>910998155.543136</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1137840220598485</v>
+        <v>0.1120343879427889</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02513421774217497</v>
+        <v>0.03648253390273631</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2972598875.625965</v>
+        <v>4383543118.208876</v>
       </c>
       <c r="F27" t="n">
-        <v>0.123219409919487</v>
+        <v>0.1570522281720506</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01960199698389627</v>
+        <v>0.02029887018256482</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3789748349.191642</v>
+        <v>3776436089.663671</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1153083596469698</v>
+        <v>0.1028698990795257</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04637377612812114</v>
+        <v>0.04955832102465791</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3742539825.140469</v>
+        <v>4007968777.846802</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1466981426646235</v>
+        <v>0.1057167797005876</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03182882833104127</v>
+        <v>0.03626037804614781</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2229480014.588213</v>
+        <v>2008701193.622255</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09594517695045403</v>
+        <v>0.08961116267889126</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03312407677450448</v>
+        <v>0.02450607410469082</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1329142086.732433</v>
+        <v>1048711041.991983</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07019966642282263</v>
+        <v>0.1068432406567361</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04062119886559809</v>
+        <v>0.04907447959261194</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1420413665.712416</v>
+        <v>1419918599.592114</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09943996757134402</v>
+        <v>0.09320391864928805</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0250923317059579</v>
+        <v>0.0364086961585003</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2760122659.277146</v>
+        <v>2450375232.734766</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1611669713859324</v>
+        <v>0.1527098789587584</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04125672865683139</v>
+        <v>0.04209507474128449</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1321109932.272774</v>
+        <v>1340857686.464655</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1111367614679405</v>
+        <v>0.09770836046613707</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02560507840014026</v>
+        <v>0.02391496544031869</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1212172818.652966</v>
+        <v>966622358.4675276</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07678746184644596</v>
+        <v>0.0936194801049131</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03333073010888298</v>
+        <v>0.0286905676947334</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2308281666.93389</v>
+        <v>2440370975.035511</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1164530900557206</v>
+        <v>0.1242090767055738</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02763804044169219</v>
+        <v>0.01886167186168147</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2651672527.326672</v>
+        <v>2413045930.697055</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07275169290822607</v>
+        <v>0.09175379695090942</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03424930037677641</v>
+        <v>0.03041929237501692</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1733772421.746168</v>
+        <v>1694476613.24407</v>
       </c>
       <c r="F38" t="n">
-        <v>0.122547600028262</v>
+        <v>0.1114583614054463</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02644362762812416</v>
+        <v>0.03588083101174757</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1415101553.954935</v>
+        <v>1474089839.642233</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1721802865566492</v>
+        <v>0.1308508603195282</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02541307781616542</v>
+        <v>0.02368119654090485</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1438424123.588653</v>
+        <v>1541645018.184055</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1501759557588866</v>
+        <v>0.1562809996292938</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04649104306734986</v>
+        <v>0.05735090492767742</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2135181533.838101</v>
+        <v>2882692436.851969</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1626270881004236</v>
+        <v>0.1122342545526014</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04476944895097495</v>
+        <v>0.02971157025394824</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3713121869.507154</v>
+        <v>3837415377.675399</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07965094369910349</v>
+        <v>0.07799373328999509</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02948419330084416</v>
+        <v>0.03341208705813201</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2505640617.590765</v>
+        <v>2419745395.547936</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1578696083018249</v>
+        <v>0.1313899230163884</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02536623423394681</v>
+        <v>0.02451321008658233</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2298679277.529172</v>
+        <v>1542404305.482528</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08589756846430317</v>
+        <v>0.07531763263530493</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02767005913724927</v>
+        <v>0.03654312030373918</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1741718006.755043</v>
+        <v>2003132545.479767</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1316515075553659</v>
+        <v>0.1935886185347361</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03724571759361661</v>
+        <v>0.05555763606990963</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4805259599.778219</v>
+        <v>5260971181.918621</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1358493428830368</v>
+        <v>0.1621783120118549</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04884551066710352</v>
+        <v>0.04649628717373658</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4603316092.099293</v>
+        <v>3705501359.801363</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1685588248622574</v>
+        <v>0.1894075253860796</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05634860066297963</v>
+        <v>0.05102426480649233</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4325544143.579037</v>
+        <v>3615768686.263543</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0918967731517004</v>
+        <v>0.09448289017321178</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02605159141804431</v>
+        <v>0.03734390557284224</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1798429421.154776</v>
+        <v>1406954139.10415</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1307999639427551</v>
+        <v>0.1920444302194256</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02847084204584501</v>
+        <v>0.04381001487525615</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3288031874.064624</v>
+        <v>3929698652.881599</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1717829190764221</v>
+        <v>0.144949569766773</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04460610802488337</v>
+        <v>0.03783822710803048</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1327307214.711294</v>
+        <v>1482744624.249099</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1545603222901172</v>
+        <v>0.133414263515796</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04727966885212368</v>
+        <v>0.04672737803294974</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3859136004.35877</v>
+        <v>3225951059.051877</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1122144833396471</v>
+        <v>0.101219909518386</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05715901913176814</v>
+        <v>0.05572788727123443</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2655896575.312138</v>
+        <v>2874820389.200242</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1533350017455108</v>
+        <v>0.1583184732301305</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03557126902471893</v>
+        <v>0.02675681307958723</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3583861526.606772</v>
+        <v>4868075975.516761</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1346532489021513</v>
+        <v>0.1348600231713952</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03449513957781251</v>
+        <v>0.03936221726738065</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3302830742.681028</v>
+        <v>3368843702.220157</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1666598647057423</v>
+        <v>0.1670402427580379</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02530253066458071</v>
+        <v>0.03244943941929301</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1573205568.097698</v>
+        <v>1200455752.109193</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1179064718973468</v>
+        <v>0.1094836446719485</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04307974169265141</v>
+        <v>0.03982196668609853</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3760223936.697105</v>
+        <v>4336508370.968721</v>
       </c>
       <c r="F57" t="n">
-        <v>0.11753426387702</v>
+        <v>0.1612626045335959</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0264096303488617</v>
+        <v>0.02504410174447296</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1265389109.425068</v>
+        <v>1593407213.91262</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1698585734887579</v>
+        <v>0.167899720055847</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02615676447779774</v>
+        <v>0.03381102357967305</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3281568781.364084</v>
+        <v>3981625619.379745</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1220334034366974</v>
+        <v>0.1189130719991783</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0350103686116884</v>
+        <v>0.04896350750274227</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3723466118.697501</v>
+        <v>2747395647.970467</v>
       </c>
       <c r="F60" t="n">
-        <v>0.170673952809673</v>
+        <v>0.1668383825626652</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02943215605530096</v>
+        <v>0.02691865413696487</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3333758578.843728</v>
+        <v>2207906610.432389</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1369135474137216</v>
+        <v>0.1430517201357069</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02146059214717743</v>
+        <v>0.02931763812946956</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1793816768.492269</v>
+        <v>1465525342.977734</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1833790970781894</v>
+        <v>0.1487324618420021</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03676221637210006</v>
+        <v>0.03630826203992924</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3523696167.899745</v>
+        <v>3881587883.698882</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09009102332808214</v>
+        <v>0.09608574958562753</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04344290705837342</v>
+        <v>0.03622823870783129</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4610824714.053539</v>
+        <v>3796066143.9138</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1233739774191178</v>
+        <v>0.1782127263641092</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03289443378220076</v>
+        <v>0.02662344805782085</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4323422276.739714</v>
+        <v>3865674523.5897</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1387137245791981</v>
+        <v>0.1682595413307836</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0262404661844567</v>
+        <v>0.02490200599626261</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5125898473.679561</v>
+        <v>4991957117.783915</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1176098493136283</v>
+        <v>0.1602422435325597</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0444921685136643</v>
+        <v>0.04979683299458568</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2676841947.290866</v>
+        <v>3028903030.461481</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08553415136016602</v>
+        <v>0.08115752175869796</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05152312499768286</v>
+        <v>0.04981580436140594</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4171023397.195664</v>
+        <v>5926785393.985993</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1070210343505058</v>
+        <v>0.1409413875298248</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04304896082391235</v>
+        <v>0.03743984644136514</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2479429956.624548</v>
+        <v>1546227732.348889</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1258643997861255</v>
+        <v>0.1371025406640723</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0365487450277598</v>
+        <v>0.05365333146484546</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3039261011.688459</v>
+        <v>2831316953.628036</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08735701372609636</v>
+        <v>0.08812478081755383</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04869980153266508</v>
+        <v>0.04768036918208506</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4988675201.028184</v>
+        <v>3667682768.766889</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1335859456475431</v>
+        <v>0.1486966646190542</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02470917230949045</v>
+        <v>0.02885787121996517</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1477491637.140055</v>
+        <v>1843455578.710345</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0770167592160463</v>
+        <v>0.09920307969660934</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04564586257933002</v>
+        <v>0.03683868711366989</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3581156710.051747</v>
+        <v>2281679453.010226</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07253344048301909</v>
+        <v>0.08289915098726983</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04664740574700779</v>
+        <v>0.04720315901189335</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2420299601.087521</v>
+        <v>3013660407.7614</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1504877444305729</v>
+        <v>0.1479665384483574</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02370118237358363</v>
+        <v>0.03458658368613233</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1766158489.766074</v>
+        <v>1718556496.552046</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1098060217490625</v>
+        <v>0.1097961857234602</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02313289163243903</v>
+        <v>0.02409803071600396</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4586394071.05945</v>
+        <v>3393072962.481787</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1213194978484745</v>
+        <v>0.08291405045355765</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02561049495335962</v>
+        <v>0.0230577942132432</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2261315356.917151</v>
+        <v>1958920042.85702</v>
       </c>
       <c r="F77" t="n">
-        <v>0.138611535682257</v>
+        <v>0.1296548996518522</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02238911583304884</v>
+        <v>0.02229972917387649</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4634867657.549856</v>
+        <v>2920987741.373787</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1172659175019598</v>
+        <v>0.1186494985298663</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05571907773704555</v>
+        <v>0.04985900774677186</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1218159677.884168</v>
+        <v>1514815989.460017</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1667464467809187</v>
+        <v>0.1714386860071751</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03049696387658619</v>
+        <v>0.03564067287462178</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5125792051.326391</v>
+        <v>3468085514.189401</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09857735805386673</v>
+        <v>0.06842784737592815</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0276334316932409</v>
+        <v>0.0247540176891644</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4162321301.751357</v>
+        <v>3485482264.642235</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1162682569523741</v>
+        <v>0.1031193009501402</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02541781222127535</v>
+        <v>0.02182779727945732</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4903793286.107871</v>
+        <v>5230279995.324512</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1409576562145906</v>
+        <v>0.1490484211892043</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01914594566756104</v>
+        <v>0.01874323715709211</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1934595081.459465</v>
+        <v>1619690495.634317</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09568382349340088</v>
+        <v>0.1412619845287952</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04047675513497917</v>
+        <v>0.03830597292437712</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2264546149.04304</v>
+        <v>1576822526.809047</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09119512985328811</v>
+        <v>0.09446770688351333</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04586400756258362</v>
+        <v>0.03406269574184369</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3168241877.901194</v>
+        <v>3283205270.222048</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1790353414692783</v>
+        <v>0.1578818533990815</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04784529678599505</v>
+        <v>0.05007002460851982</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2166932253.595826</v>
+        <v>2433812105.374502</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1504622287708524</v>
+        <v>0.1159489503844111</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02529531692329954</v>
+        <v>0.01991192323169981</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1257555409.693564</v>
+        <v>1113167953.97041</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1754179877953052</v>
+        <v>0.1220354409795783</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03256849988768216</v>
+        <v>0.03612147576447658</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3064202493.687219</v>
+        <v>2331931792.521163</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1765979293652595</v>
+        <v>0.1111254819607453</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02469448685036092</v>
+        <v>0.03933221247925009</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2723155171.770711</v>
+        <v>2169247898.768551</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09969502909035387</v>
+        <v>0.1094768694956839</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03963753292256707</v>
+        <v>0.03064101909873789</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1732699509.853469</v>
+        <v>1625539138.506028</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1184209565697033</v>
+        <v>0.1186506397348034</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05381098819822414</v>
+        <v>0.05471735434630489</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1809630804.155974</v>
+        <v>1668299490.088731</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1189953225501269</v>
+        <v>0.1207697226766678</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0595198550256336</v>
+        <v>0.04275631270068502</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2974487568.243273</v>
+        <v>1830879265.303173</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06896238317261261</v>
+        <v>0.09190733794570552</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04665476199104963</v>
+        <v>0.03098937822289296</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3440856287.062188</v>
+        <v>4387838638.012437</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1032471754235306</v>
+        <v>0.09884241365394865</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04632655782924264</v>
+        <v>0.03336346128961912</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1599742564.63917</v>
+        <v>2137202985.434023</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1454789595882977</v>
+        <v>0.1556958998260764</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03495897209970552</v>
+        <v>0.0357121025909336</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2339016886.579933</v>
+        <v>2748179819.109005</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1024485876544581</v>
+        <v>0.08968676499608581</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0481944271665243</v>
+        <v>0.04148711672974648</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1632478199.669258</v>
+        <v>2080755883.146353</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1410370087099925</v>
+        <v>0.1410616474899765</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04494051143401372</v>
+        <v>0.04341042947952058</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3249189639.153132</v>
+        <v>5145036708.798711</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1730306240306355</v>
+        <v>0.1364380757266373</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02046237139172978</v>
+        <v>0.02353913652697778</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3076956384.811582</v>
+        <v>3648097651.750242</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1195587346534524</v>
+        <v>0.118327695395663</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02093388760577283</v>
+        <v>0.02664552760926476</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2951623565.973767</v>
+        <v>3180358942.835058</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0913590970729138</v>
+        <v>0.139776902177635</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03461555307288978</v>
+        <v>0.0264068615290638</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3951906794.306551</v>
+        <v>4444540970.201362</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1306759718498346</v>
+        <v>0.1571811807775788</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02514328801621131</v>
+        <v>0.02137187587495068</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3067802737.091435</v>
+        <v>2226527315.011075</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1761396649690419</v>
+        <v>0.2078465091249469</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04082935543952258</v>
+        <v>0.05424747814681093</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_92.xlsx
+++ b/output/fit_clients/fit_round_92.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2264512521.198293</v>
+        <v>2428046035.027037</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1004045928602355</v>
+        <v>0.1035818593150577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04354773550314728</v>
+        <v>0.03689230581901513</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1708134104.011878</v>
+        <v>1960061468.770954</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1400693590306704</v>
+        <v>0.1233995234222312</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03240579008468056</v>
+        <v>0.03126348939467057</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3795256865.343517</v>
+        <v>3754790198.417552</v>
       </c>
       <c r="F4" t="n">
-        <v>0.103971309616686</v>
+        <v>0.1343854887632519</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02551849175668828</v>
+        <v>0.03801102321995533</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>59</v>
+      </c>
+      <c r="J4" t="n">
+        <v>91</v>
+      </c>
+      <c r="K4" t="n">
+        <v>156.7820452507628</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4110323667.013605</v>
+        <v>3170933275.870596</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1091673001444786</v>
+        <v>0.1000823849714516</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03432029848270282</v>
+        <v>0.03701952940708914</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>90</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2319646094.284383</v>
+        <v>2818130905.044347</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1050020252484407</v>
+        <v>0.1364467173016128</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05010473528775988</v>
+        <v>0.04628484025803616</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2397036812.968313</v>
+        <v>2392497579.780751</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09522626600887381</v>
+        <v>0.06708906173298777</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04353013444789328</v>
+        <v>0.0472170853566477</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3085733305.894487</v>
+        <v>3864161914.480247</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1828341911361764</v>
+        <v>0.1965076091011293</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0260512273782139</v>
+        <v>0.02965344207376926</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>92</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1898608470.459731</v>
+        <v>1445128334.532893</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1296570910145646</v>
+        <v>0.1934736855327775</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03650593552983569</v>
+        <v>0.02871984171516827</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5686392085.028472</v>
+        <v>4826480409.931813</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1851563458742991</v>
+        <v>0.1749548656365714</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05331925077621086</v>
+        <v>0.03795225571512698</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>86</v>
+      </c>
+      <c r="J10" t="n">
+        <v>92</v>
+      </c>
+      <c r="K10" t="n">
+        <v>189.0483625105864</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3390864150.135701</v>
+        <v>2791978208.616758</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1232808213708484</v>
+        <v>0.1178289819631017</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03010559193751942</v>
+        <v>0.04952779472609404</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38</v>
+      </c>
+      <c r="J11" t="n">
+        <v>91</v>
+      </c>
+      <c r="K11" t="n">
+        <v>95.70419248169466</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3085663404.559889</v>
+        <v>2989091968.131727</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1793627228640649</v>
+        <v>0.1896398980256769</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03682238574745408</v>
+        <v>0.05063030500392032</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4042112529.413013</v>
+        <v>4813367591.409886</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09010890817628736</v>
+        <v>0.08658794523199086</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03001976997349511</v>
+        <v>0.02593371282613555</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>46</v>
+      </c>
+      <c r="J13" t="n">
+        <v>92</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2727645320.991656</v>
+        <v>3590571974.850178</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1664879771827621</v>
+        <v>0.1687792069780197</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03167512415226399</v>
+        <v>0.03804492534218237</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>17</v>
+      </c>
+      <c r="J14" t="n">
+        <v>92</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1686087691.507165</v>
+        <v>1343382713.315838</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09153856075548163</v>
+        <v>0.07840579868266141</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04622696071649143</v>
+        <v>0.04929665761120466</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2367862230.647931</v>
+        <v>2012010419.875872</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1072117290442075</v>
+        <v>0.1163278952565178</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03124462447260281</v>
+        <v>0.03523629322969479</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3897274630.282538</v>
+        <v>4828866140.731677</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1649339023563796</v>
+        <v>0.1088265199369654</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0508031243234038</v>
+        <v>0.04018972722712038</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>44</v>
+      </c>
+      <c r="J17" t="n">
+        <v>92</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2898217255.147633</v>
+        <v>3605638788.232383</v>
       </c>
       <c r="F18" t="n">
-        <v>0.129232472557393</v>
+        <v>0.1234344364334045</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02870673305600703</v>
+        <v>0.02874882167053287</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>91</v>
+      </c>
+      <c r="K18" t="n">
+        <v>139.5383895327949</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>839953048.21385</v>
+        <v>1056403565.447886</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1851199579093196</v>
+        <v>0.1762420873843402</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02449054699236535</v>
+        <v>0.0269219487743896</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2243038229.571455</v>
+        <v>2568838681.65448</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1277083412331012</v>
+        <v>0.1005313365666614</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03100438128218983</v>
+        <v>0.03105320316565832</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1911336008.186139</v>
+        <v>2225268339.361006</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07062939301258157</v>
+        <v>0.08061617239109409</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02856688966838967</v>
+        <v>0.03931817198832086</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2977978777.779519</v>
+        <v>3002825036.836042</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1321882613370963</v>
+        <v>0.09229491864404116</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05717736489057781</v>
+        <v>0.05483062492040757</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>87</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1249975164.827109</v>
+        <v>1339754085.090111</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1162844830322205</v>
+        <v>0.1840230518649094</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04423799512786902</v>
+        <v>0.04427460993990962</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2928512307.710129</v>
+        <v>3557295502.351307</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1110781203101091</v>
+        <v>0.1046329679298038</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0366295399825588</v>
+        <v>0.02803463908083276</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>90</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1254009698.35357</v>
+        <v>1484537277.373915</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09872622603028008</v>
+        <v>0.1027835424244713</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02120683319728955</v>
+        <v>0.02530903389192211</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>910998155.543136</v>
+        <v>1104286322.249742</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1120343879427889</v>
+        <v>0.09285784283350146</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03648253390273631</v>
+        <v>0.03683193950200042</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4383543118.208876</v>
+        <v>3445720180.300957</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1570522281720506</v>
+        <v>0.134187037770821</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02029887018256482</v>
+        <v>0.02023773364622685</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>36</v>
+      </c>
+      <c r="J27" t="n">
+        <v>89</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3776436089.663671</v>
+        <v>3444006950.370188</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1028698990795257</v>
+        <v>0.1061600582757599</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04955832102465791</v>
+        <v>0.0303764903804229</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4007968777.846802</v>
+        <v>4028511036.418774</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1057167797005876</v>
+        <v>0.1385899979313887</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03626037804614781</v>
+        <v>0.03288972126598572</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>86</v>
+      </c>
+      <c r="J29" t="n">
+        <v>92</v>
+      </c>
+      <c r="K29" t="n">
+        <v>200.2881675099402</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2008701193.622255</v>
+        <v>1792574567.221076</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08961116267889126</v>
+        <v>0.1064869549308444</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02450607410469082</v>
+        <v>0.03262496946320451</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1048711041.991983</v>
+        <v>956818545.6502135</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1068432406567361</v>
+        <v>0.08187304684084083</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04907447959261194</v>
+        <v>0.04287690006462024</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1419918599.592114</v>
+        <v>1358672918.798917</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09320391864928805</v>
+        <v>0.09749003320480912</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0364086961585003</v>
+        <v>0.02709796658070276</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2450375232.734766</v>
+        <v>2966359326.32369</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1527098789587584</v>
+        <v>0.1515353332301257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04209507474128449</v>
+        <v>0.05548138902002617</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1340857686.464655</v>
+        <v>1155780189.189584</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09770836046613707</v>
+        <v>0.07526372092165547</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02391496544031869</v>
+        <v>0.02587798744974968</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>966622358.4675276</v>
+        <v>946225313.0581573</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0936194801049131</v>
+        <v>0.1182560720107017</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0286905676947334</v>
+        <v>0.03632108192464324</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2440370975.035511</v>
+        <v>2929829209.669168</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1242090767055738</v>
+        <v>0.1131228478487574</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01886167186168147</v>
+        <v>0.02102308985987071</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2413045930.697055</v>
+        <v>2276504079.781383</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09175379695090942</v>
+        <v>0.09400436699569323</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03041929237501692</v>
+        <v>0.03610510947769887</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1694476613.24407</v>
+        <v>1760764053.777436</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1114583614054463</v>
+        <v>0.1008964788096176</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03588083101174757</v>
+        <v>0.03380528862959947</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1474089839.642233</v>
+        <v>1617621964.068453</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1308508603195282</v>
+        <v>0.1326431868704125</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02368119654090485</v>
+        <v>0.02333790260529942</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1541645018.184055</v>
+        <v>1715164565.930133</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1562809996292938</v>
+        <v>0.1528400446753324</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05735090492767742</v>
+        <v>0.04303538699686245</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2882692436.851969</v>
+        <v>2813872776.368258</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1122342545526014</v>
+        <v>0.1340311341676118</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02971157025394824</v>
+        <v>0.02871242505016306</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3837415377.675399</v>
+        <v>2835879557.337219</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07799373328999509</v>
+        <v>0.1013099237085934</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03341208705813201</v>
+        <v>0.03280950961371067</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>35</v>
+      </c>
+      <c r="J42" t="n">
+        <v>91</v>
+      </c>
+      <c r="K42" t="n">
+        <v>91.02256575954121</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2419745395.547936</v>
+        <v>1881379635.337263</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1313899230163884</v>
+        <v>0.1319051731743945</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02451321008658233</v>
+        <v>0.02548388806825129</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1542404305.482528</v>
+        <v>2230058895.319086</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07531763263530493</v>
+        <v>0.07986407319947755</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03654312030373918</v>
+        <v>0.0236810492008531</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2003132545.479767</v>
+        <v>2097135814.370348</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1935886185347361</v>
+        <v>0.1511359670888709</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05555763606990963</v>
+        <v>0.04576148871521233</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5260971181.918621</v>
+        <v>3600356869.94705</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1621783120118549</v>
+        <v>0.1574812102731362</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04649628717373658</v>
+        <v>0.05101784894895189</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>52</v>
+      </c>
+      <c r="J46" t="n">
+        <v>92</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3705501359.801363</v>
+        <v>3458945970.243129</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1894075253860796</v>
+        <v>0.1380286870715089</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05102426480649233</v>
+        <v>0.05476375094278418</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>41</v>
+      </c>
+      <c r="J47" t="n">
+        <v>89</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2123,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3615768686.263543</v>
+        <v>2932245755.014917</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09448289017321178</v>
+        <v>0.06700569796368445</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03734390557284224</v>
+        <v>0.02845780786517872</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>35</v>
+      </c>
+      <c r="J48" t="n">
+        <v>90</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1406954139.10415</v>
+        <v>1541930476.414449</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1920444302194256</v>
+        <v>0.1826763594597526</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04381001487525615</v>
+        <v>0.02994373724682043</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3929698652.881599</v>
+        <v>4098269725.443057</v>
       </c>
       <c r="F50" t="n">
-        <v>0.144949569766773</v>
+        <v>0.1452303598694088</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03783822710803048</v>
+        <v>0.03340525204392073</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>32</v>
+      </c>
+      <c r="J50" t="n">
+        <v>92</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1482744624.249099</v>
+        <v>974123431.9445903</v>
       </c>
       <c r="F51" t="n">
-        <v>0.133414263515796</v>
+        <v>0.1331852126229919</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04672737803294974</v>
+        <v>0.0345271186023632</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3225951059.051877</v>
+        <v>3947127309.915126</v>
       </c>
       <c r="F52" t="n">
-        <v>0.101219909518386</v>
+        <v>0.1011696008035487</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05572788727123443</v>
+        <v>0.05555792102669287</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>70</v>
+      </c>
+      <c r="J52" t="n">
+        <v>92</v>
+      </c>
+      <c r="K52" t="n">
+        <v>178.5821706256762</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2874820389.200242</v>
+        <v>2944466523.972721</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1583184732301305</v>
+        <v>0.165273204231671</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02675681307958723</v>
+        <v>0.02320800376085084</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4868075975.516761</v>
+        <v>4014179663.743314</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1348600231713952</v>
+        <v>0.1312066878352506</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03936221726738065</v>
+        <v>0.0350046201485677</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>41</v>
+      </c>
+      <c r="J54" t="n">
+        <v>92</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3368843702.220157</v>
+        <v>4002638533.155216</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1670402427580379</v>
+        <v>0.1527542225643581</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03244943941929301</v>
+        <v>0.02561211924096417</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>42</v>
+      </c>
+      <c r="J55" t="n">
+        <v>91</v>
+      </c>
+      <c r="K55" t="n">
+        <v>152.4556603623358</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1200455752.109193</v>
+        <v>1259909191.674754</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1094836446719485</v>
+        <v>0.1162446759316265</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03982196668609853</v>
+        <v>0.04521689757182216</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4336508370.968721</v>
+        <v>4338323398.814102</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1612626045335959</v>
+        <v>0.1528212982401073</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02504410174447296</v>
+        <v>0.02687755150343986</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>34</v>
+      </c>
+      <c r="J57" t="n">
+        <v>92</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1593407213.91262</v>
+        <v>1431208677.887369</v>
       </c>
       <c r="F58" t="n">
-        <v>0.167899720055847</v>
+        <v>0.1859665913017027</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03381102357967305</v>
+        <v>0.02986968456820469</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3981625619.379745</v>
+        <v>3296212814.255484</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1189130719991783</v>
+        <v>0.09128965114478722</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04896350750274227</v>
+        <v>0.0365360570639871</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>45</v>
+      </c>
+      <c r="J59" t="n">
+        <v>91</v>
+      </c>
+      <c r="K59" t="n">
+        <v>110.8319408901365</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2747395647.970467</v>
+        <v>3644653465.56881</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1668383825626652</v>
+        <v>0.140136477085713</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02691865413696487</v>
+        <v>0.02133979147027634</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>12</v>
+      </c>
+      <c r="J60" t="n">
+        <v>92</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2207906610.432389</v>
+        <v>2276811390.138349</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1430517201357069</v>
+        <v>0.1197491448428467</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02931763812946956</v>
+        <v>0.03117369175474394</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2619,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1465525342.977734</v>
+        <v>1686305854.299631</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1487324618420021</v>
+        <v>0.1714468943300532</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03630826203992924</v>
+        <v>0.04336114019262137</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2648,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3881587883.698882</v>
+        <v>3650947431.864022</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09608574958562753</v>
+        <v>0.07037123998638073</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03622823870783129</v>
+        <v>0.04761771683600596</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>45</v>
+      </c>
+      <c r="J63" t="n">
+        <v>92</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2683,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3796066143.9138</v>
+        <v>4552060885.502156</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1782127263641092</v>
+        <v>0.1655708873154245</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02662344805782085</v>
+        <v>0.02677012044480657</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>45</v>
+      </c>
+      <c r="J64" t="n">
+        <v>92</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2718,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3865674523.5897</v>
+        <v>6012568580.488177</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1682595413307836</v>
+        <v>0.1667156203754158</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02490200599626261</v>
+        <v>0.02436853474787852</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>73</v>
+      </c>
+      <c r="J65" t="n">
+        <v>92</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2753,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4991957117.783915</v>
+        <v>4919155356.540733</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1602422435325597</v>
+        <v>0.09931165167931821</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04979683299458568</v>
+        <v>0.04009046616488307</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>45</v>
+      </c>
+      <c r="J66" t="n">
+        <v>92</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2788,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3028903030.461481</v>
+        <v>2205985292.776474</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08115752175869796</v>
+        <v>0.08503563509845817</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04981580436140594</v>
+        <v>0.04174435134189106</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2823,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5926785393.985993</v>
+        <v>4216650512.228873</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1409413875298248</v>
+        <v>0.1297490752020215</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03743984644136514</v>
+        <v>0.0469182867587969</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>46</v>
+      </c>
+      <c r="J68" t="n">
+        <v>91</v>
+      </c>
+      <c r="K68" t="n">
+        <v>160.4892162605974</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2860,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1546227732.348889</v>
+        <v>1612245574.496545</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1371025406640723</v>
+        <v>0.1346928679848528</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05365333146484546</v>
+        <v>0.05758414954782344</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2901,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2831316953.628036</v>
+        <v>3624487056.708433</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08812478081755383</v>
+        <v>0.07126875022045059</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04768036918208506</v>
+        <v>0.04147848479628709</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>92</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2930,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3667682768.766889</v>
+        <v>3455749857.143619</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1486966646190542</v>
+        <v>0.1853045978144488</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02885787121996517</v>
+        <v>0.03339474149102058</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>76</v>
+      </c>
+      <c r="J71" t="n">
+        <v>91</v>
+      </c>
+      <c r="K71" t="n">
+        <v>138.8193205709826</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2967,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1843455578.710345</v>
+        <v>1757259852.557769</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09920307969660934</v>
+        <v>0.07431573358568766</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03683868711366989</v>
+        <v>0.0356932175330266</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3002,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2281679453.010226</v>
+        <v>3067852464.194591</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08289915098726983</v>
+        <v>0.1038985739676837</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04720315901189335</v>
+        <v>0.0399507590449343</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3037,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3013660407.7614</v>
+        <v>2920044165.719007</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1479665384483574</v>
+        <v>0.1699368011903908</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03458658368613233</v>
+        <v>0.02668864523782099</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>29</v>
+      </c>
+      <c r="J74" t="n">
+        <v>91</v>
+      </c>
+      <c r="K74" t="n">
+        <v>95.02007691215374</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3074,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1718556496.552046</v>
+        <v>1660864259.933715</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1097961857234602</v>
+        <v>0.1313005690461127</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02409803071600396</v>
+        <v>0.03207760428094951</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3109,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3393072962.481787</v>
+        <v>4728176558.478321</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08291405045355765</v>
+        <v>0.07709819474482699</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0230577942132432</v>
+        <v>0.02604309405825287</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>42</v>
+      </c>
+      <c r="J76" t="n">
+        <v>92</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3144,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1958920042.85702</v>
+        <v>2009355085.276111</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1296548996518522</v>
+        <v>0.1260503676574576</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02229972917387649</v>
+        <v>0.02633932795843079</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3179,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2920987741.373787</v>
+        <v>4620920466.360622</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1186494985298663</v>
+        <v>0.1363613133184332</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04985900774677186</v>
+        <v>0.04143789755712791</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>46</v>
+      </c>
+      <c r="J78" t="n">
+        <v>92</v>
+      </c>
+      <c r="K78" t="n">
+        <v>179.1572678589179</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3216,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1514815989.460017</v>
+        <v>1662829069.090253</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1714386860071751</v>
+        <v>0.1536109168184862</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03564067287462178</v>
+        <v>0.03267950075569501</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3251,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3468085514.189401</v>
+        <v>3882125735.486292</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06842784737592815</v>
+        <v>0.06895894510047083</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0247540176891644</v>
+        <v>0.03156986645040404</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>44</v>
+      </c>
+      <c r="J80" t="n">
+        <v>91</v>
+      </c>
+      <c r="K80" t="n">
+        <v>128.5788505074248</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3294,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3485482264.642235</v>
+        <v>4007988093.687102</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1031193009501402</v>
+        <v>0.1187882428264387</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02182779727945732</v>
+        <v>0.02022856428531345</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>42</v>
+      </c>
+      <c r="J81" t="n">
+        <v>91</v>
+      </c>
+      <c r="K81" t="n">
+        <v>140.7272788729569</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5230279995.324512</v>
+        <v>4984574081.902302</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1490484211892043</v>
+        <v>0.2071303428383446</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01874323715709211</v>
+        <v>0.01938278457557562</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>59</v>
+      </c>
+      <c r="J82" t="n">
+        <v>92</v>
+      </c>
+      <c r="K82" t="n">
+        <v>177.8971568452909</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1619690495.634317</v>
+        <v>1668218092.915056</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1412619845287952</v>
+        <v>0.1467339358667868</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03830597292437712</v>
+        <v>0.03817198663882689</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1576822526.809047</v>
+        <v>2018834843.25355</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09446770688351333</v>
+        <v>0.1033343588009483</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03406269574184369</v>
+        <v>0.03604052012410785</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3438,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3283205270.222048</v>
+        <v>3471074750.894543</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1578818533990815</v>
+        <v>0.1119953329419683</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05007002460851982</v>
+        <v>0.05427377114993562</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" t="n">
+        <v>88</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2433812105.374502</v>
+        <v>2413481027.600705</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1159489503844111</v>
+        <v>0.1624051498590134</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01991192323169981</v>
+        <v>0.02192143472162751</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1113167953.97041</v>
+        <v>1276878441.229487</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1220354409795783</v>
+        <v>0.16993012728937</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03612147576447658</v>
+        <v>0.03104597081545993</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2331931792.521163</v>
+        <v>3455193574.457087</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1111254819607453</v>
+        <v>0.1591580549569327</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03933221247925009</v>
+        <v>0.03094246002490952</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>13</v>
+      </c>
+      <c r="J88" t="n">
+        <v>86</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2169247898.768551</v>
+        <v>3371362336.399094</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1094768694956839</v>
+        <v>0.1543876447713864</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03064101909873789</v>
+        <v>0.03724980210738299</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1625539138.506028</v>
+        <v>1767422682.643263</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1186506397348034</v>
+        <v>0.08504078219137352</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05471735434630489</v>
+        <v>0.0539059085335504</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1668299490.088731</v>
+        <v>1742147995.7918</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1207697226766678</v>
+        <v>0.158659072057446</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04275631270068502</v>
+        <v>0.05718824876457847</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3683,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1830879265.303173</v>
+        <v>2662538688.850797</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09190733794570552</v>
+        <v>0.07157966668814449</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03098937822289296</v>
+        <v>0.04038166965859973</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3712,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4387838638.012437</v>
+        <v>3652613770.59591</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09884241365394865</v>
+        <v>0.1378838441187586</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03336346128961912</v>
+        <v>0.03361196982517765</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>42</v>
+      </c>
+      <c r="J93" t="n">
+        <v>91</v>
+      </c>
+      <c r="K93" t="n">
+        <v>136.9901106438867</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2137202985.434023</v>
+        <v>1965145830.00403</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1556958998260764</v>
+        <v>0.1416321563098943</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0357121025909336</v>
+        <v>0.03263725434124567</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2748179819.109005</v>
+        <v>2391707166.240168</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08968676499608581</v>
+        <v>0.0838075862546529</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04148711672974648</v>
+        <v>0.05010444095966655</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2080755883.146353</v>
+        <v>2329422782.811831</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1410616474899765</v>
+        <v>0.1373396455076527</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04341042947952058</v>
+        <v>0.04419954039373453</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3860,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5145036708.798711</v>
+        <v>5059821657.10992</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1364380757266373</v>
+        <v>0.1469000106587048</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02353913652697778</v>
+        <v>0.0208622580060652</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>44</v>
+      </c>
+      <c r="J97" t="n">
+        <v>91</v>
+      </c>
+      <c r="K97" t="n">
+        <v>166.7120086526222</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3648097651.750242</v>
+        <v>3895454247.355791</v>
       </c>
       <c r="F98" t="n">
-        <v>0.118327695395663</v>
+        <v>0.1060640823789981</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02664552760926476</v>
+        <v>0.02057521144641625</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>20</v>
+      </c>
+      <c r="J98" t="n">
+        <v>91</v>
+      </c>
+      <c r="K98" t="n">
+        <v>148.9079249448661</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3180358942.835058</v>
+        <v>3285708084.061774</v>
       </c>
       <c r="F99" t="n">
-        <v>0.139776902177635</v>
+        <v>0.1182045234518071</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0264068615290638</v>
+        <v>0.0268305225383939</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4444540970.201362</v>
+        <v>4022061187.387661</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1571811807775788</v>
+        <v>0.1624524624799518</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02137187587495068</v>
+        <v>0.02764390715561993</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>37</v>
+      </c>
+      <c r="J100" t="n">
+        <v>91</v>
+      </c>
+      <c r="K100" t="n">
+        <v>156.2797584253331</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2226527315.011075</v>
+        <v>2577185834.998597</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2078465091249469</v>
+        <v>0.2227906722394619</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05424747814681093</v>
+        <v>0.04113637891714561</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
